--- a/biology/Histoire de la zoologie et de la botanique/Charles_Dennis_Adams/Charles_Dennis_Adams.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Dennis_Adams/Charles_Dennis_Adams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Dennis Adams (1920-2005) est un botaniste britannique, taxonomiste et spécialiste de la flore tropicale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Dennis Adams (1920-2005) est un botaniste britannique, taxonomiste et spécialiste de la flore tropicale.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence sa carrière au University College of Gold Coast –  aujourd'hui Université du Ghana – , consacre alors une série de publications aux ptéridophytes et Composées et identifie de nouvelles espèces[1].
-Par la suite il est nommé à l'Université des Indes occidentales et étudie la flore de la Jamaïque[1].
-Il termine sa carrière à Londres, en tant qu'assistant honoraire du Musée d'histoire naturelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière au University College of Gold Coast –  aujourd'hui Université du Ghana – , consacre alors une série de publications aux ptéridophytes et Composées et identifie de nouvelles espèces.
+Par la suite il est nommé à l'Université des Indes occidentales et étudie la flore de la Jamaïque.
+Il termine sa carrière à Londres, en tant qu'assistant honoraire du Musée d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flowering plants of Jamaica, 1972</t>
         </is>
